--- a/Rleased/BOM/H05R00.xlsx
+++ b/Rleased/BOM/H05R00.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HEXABITZ\Modules\Hardware\Modules Hardware Design\H05R0x\Rleased\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HEXABITZ\Modules\Hardware\Modules Hardware Design\H05R0x-Hardware\Rleased\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA3E83C-4420-4508-A801-643FCF248FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834B6869-3839-46AC-8B9E-261E7E485308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="192">
   <si>
     <t>Description</t>
   </si>
@@ -91,18 +91,9 @@
     <t>Vishay</t>
   </si>
   <si>
-    <t>PCB Header, Unshrouded, Thru 02 Straight Header, .101, AMPMODU Mod II Series</t>
-  </si>
-  <si>
     <t>TE Connectivity</t>
   </si>
   <si>
-    <t>87227-1</t>
-  </si>
-  <si>
-    <t>https://octopart.com/87227-1-te+connectivity-39512052?r=sp</t>
-  </si>
-  <si>
     <t>Conn Unshrouded Header HDR 3 POS 2.54mm Solder ST Top Entry Thru-Hole Carton</t>
   </si>
   <si>
@@ -596,6 +587,21 @@
   </si>
   <si>
     <t>CAP CER 0.1 UF 25V 10% X7R 0603</t>
+  </si>
+  <si>
+    <t>C0603C104Z3VACTU</t>
+  </si>
+  <si>
+    <t>https://octopart.com/c0603c104z3vactu-kemet-98662?r=sp</t>
+  </si>
+  <si>
+    <t>5-146280-1</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings Unshrouded 1 POS T/H</t>
+  </si>
+  <si>
+    <t>https://octopart.com/5-146280-1-te+connectivity+%2F+amp-40259676?r=sp</t>
   </si>
 </sst>
 </file>
@@ -801,24 +807,24 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Segoe UI Semibold"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI Semibold"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color theme="10"/>
-      <name val="Segoe UI Semibold"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1002,12 +1008,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1237,7 +1237,7 @@
     <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1273,38 +1273,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1326,6 +1299,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1745,16 +1727,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.69921875" customWidth="1"/>
     <col min="2" max="2" width="54.09765625" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.8984375" customWidth="1"/>
     <col min="6" max="6" width="10.09765625" customWidth="1"/>
     <col min="7" max="7" width="49" customWidth="1"/>
@@ -1767,7 +1749,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1790,11 +1772,11 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="15">
         <v>0</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1802,16 +1784,16 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="16">
         <v>45213</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1819,14 +1801,14 @@
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1849,757 +1831,763 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="F14" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="13" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="13" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="B29" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="C29" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="D29" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="21" t="s">
+      <c r="E30" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="F30" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="B36" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="D36" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="18" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="F15" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="18" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="B37" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F40" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F23" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="F24" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F26" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="B45" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F45" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="F29" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="F36" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="F39" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="F40" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F41" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="F43" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="F44" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="F45" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+      <c r="E46" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="16">
+      <c r="F46" s="24">
         <v>1</v>
       </c>
     </row>
@@ -2610,24 +2598,23 @@
     <mergeCell ref="D6:F6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E22" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E30" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E37" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E19" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E22" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E30" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E32" r:id="rId11" display="https://octopart.com/grm21br61h106ke43k-murata-106705599?r=sp" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E31" r:id="rId12" xr:uid="{CA2BC9B7-037F-4782-ACB8-2D8F29264691}"/>
     <hyperlink ref="E38" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E32" r:id="rId14" display="https://octopart.com/grm21br61h106ke43k-murata-106705599?r=sp" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E31" r:id="rId15" xr:uid="{CA2BC9B7-037F-4782-ACB8-2D8F29264691}"/>
+    <hyperlink ref="E37" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId16"/>
-  <drawing r:id="rId17"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId15"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>